--- a/spreadsheets/MNPS Enrollment 23-24.xlsx
+++ b/spreadsheets/MNPS Enrollment 23-24.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DA12\capstone\capstone-da12\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D575DC57-3B12-483C-BAF5-EDBAF11F7A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B728260B-3E2D-40A8-A6C7-C926D2F0812B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{34164FC9-B890-4ADD-917D-E4D3C8F1573B}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="3" xr2:uid="{34164FC9-B890-4ADD-917D-E4D3C8F1573B}"/>
   </bookViews>
   <sheets>
     <sheet name="Grid Results" sheetId="1" r:id="rId1"/>
     <sheet name="Enrollment Totals" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
-    <sheet name="Stats 23-24" sheetId="2" r:id="rId4"/>
+    <sheet name="Zip Code Max Enrollments" sheetId="4" r:id="rId3"/>
+    <sheet name="Zip Code Min Enrollments" sheetId="5" r:id="rId4"/>
+    <sheet name="Stats 23-24" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4641" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4673" uniqueCount="837">
   <si>
     <t>School Year</t>
   </si>
@@ -2544,6 +2545,12 @@
   </si>
   <si>
     <t>37228 Total</t>
+  </si>
+  <si>
+    <t>Zip Code with Max Enrollments Total</t>
+  </si>
+  <si>
+    <t>Zip Code with Min Enrollments Total</t>
   </si>
 </sst>
 </file>
@@ -2728,7 +2735,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2780,8 +2787,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2883,7 +2899,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[MNPS Enrollment 23-24.xlsx]Sheet3!PivotTable4</c:name>
+    <c:name>[MNPS Enrollment 23-24.xlsx]Zip Code Max Enrollments!PivotTable4</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -2986,7 +3002,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$B$1:$B$2</c:f>
+              <c:f>'Zip Code Max Enrollments'!$B$1:$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3009,93 +3025,93 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$A$3:$A$29</c:f>
+              <c:f>'Zip Code Max Enrollments'!$A$3:$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>37013</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37027</c:v>
+                  <c:v>37211</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>37207</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37206</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37214</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37209</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37216</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37203</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37210</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37115</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37217</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37220</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37221</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37215</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37076</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37208</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37204</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37205</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37138</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37212</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>37072</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>37076</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>37080</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>37115</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>37138</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="21">
                   <c:v>37189</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>37203</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>37204</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>37205</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>37206</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>37207</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>37208</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>37209</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>37210</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>37211</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>37212</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>37214</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>37215</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>37216</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>37217</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>37218</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>37220</c:v>
+                  <c:v>37027</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>37221</c:v>
+                  <c:v>37228</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>37228</c:v>
+                  <c:v>37080</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$3:$B$29</c:f>
+              <c:f>'Zip Code Max Enrollments'!$B$3:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -3103,79 +3119,79 @@
                   <c:v>15399</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>641</c:v>
+                  <c:v>10381</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>6150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4559</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4228</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3609</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3463</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3308</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2948</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2878</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2444</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2263</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2232</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1389</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1281</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1248</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1231</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>1210</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>2232</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>277</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2948</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1248</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="21">
                   <c:v>1101</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3463</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1389</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1281</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4559</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6150</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3799</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3308</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10381</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1231</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4228</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2263</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3609</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2878</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>902</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2444</c:v>
+                  <c:v>641</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2350</c:v>
+                  <c:v>411</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>411</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3405,6 +3421,542 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[MNPS Enrollment 23-24.xlsx]Zip Code Min Enrollments!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Zip Code Min Enrollments'!$B$1:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Zip Code Min Enrollments'!$A$3:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>37080</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37228</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37027</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37218</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37189</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37072</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37212</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37138</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37205</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37204</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37208</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37076</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37215</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37221</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37220</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37217</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37115</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37210</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37203</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37216</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37209</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37214</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37206</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>37207</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37211</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37013</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Zip Code Min Enrollments'!$B$3:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>641</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1210</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1231</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1248</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1281</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1389</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2232</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2263</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2444</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2878</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2948</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3308</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3463</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3609</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3799</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4228</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4559</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6150</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10381</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-09FF-403A-A280-60A4D6FC394B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1074882607"/>
+        <c:axId val="1074890767"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1074882607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1074890767"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1074890767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1074882607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3445,7 +3997,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4002,6 +5110,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB7B3A5D-69B8-9E42-389F-84F12353669B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="erica" refreshedDate="45568.81254791667" createdVersion="1" refreshedVersion="8" recordCount="159" upgradeOnRefresh="1" xr:uid="{E2D8DCB2-07D3-4F3A-92F9-4411C533598E}">
   <cacheSource type="worksheet">
@@ -10038,7 +11187,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D48FD218-C975-45DF-BBA1-E91F912014E0}" name="PivotTable3" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D48FD218-C975-45DF-BBA1-E91F912014E0}" name="PivotTable3" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="A1:D480" firstHeaderRow="2" firstDataRow="2" firstDataCol="3"/>
   <pivotFields count="34">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
@@ -12049,7 +13198,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2CA5BF4A-2D57-4520-ABE2-5CB54D2246F8}" name="PivotTable4" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2CA5BF4A-2D57-4520-ABE2-5CB54D2246F8}" name="PivotTable4" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1" chartFormat="1">
   <location ref="A1:B29" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="34">
     <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -12057,7 +13206,7 @@
     <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
     <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
     <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1" sortType="descending">
       <items count="27">
         <item x="0"/>
         <item x="19"/>
@@ -12087,6 +13236,15 @@
         <item x="25"/>
         <item t="default"/>
       </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
     </pivotField>
     <pivotField dataField="1" compact="0" numFmtId="1" outline="0" showAll="0" includeNewItemsInFilter="1"/>
     <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
@@ -12125,34 +13283,257 @@
       <x/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="17"/>
     </i>
     <i>
       <x v="2"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="25"/>
     </i>
     <i>
       <x v="4"/>
     </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total Enrollment" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B3C08DB4-F37B-4B66-B44B-8D9FA88C3587}" name="PivotTable1" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1" chartFormat="1">
+  <location ref="A1:B29" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="34">
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1" sortType="ascending">
+      <items count="27">
+        <item x="0"/>
+        <item x="19"/>
+        <item x="18"/>
+        <item x="13"/>
+        <item x="23"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="16"/>
+        <item x="20"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item x="22"/>
+        <item x="8"/>
+        <item x="24"/>
+        <item x="4"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="21"/>
+        <item x="12"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="5"/>
+        <item x="25"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" compact="0" numFmtId="1" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="27">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
     <i>
       <x v="5"/>
     </i>
     <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
+      <x v="15"/>
     </i>
     <i>
       <x v="8"/>
     </i>
     <i>
-      <x v="9"/>
+      <x v="20"/>
     </i>
     <i>
-      <x v="10"/>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="18"/>
     </i>
     <i>
       <x v="11"/>
@@ -12161,43 +13542,10 @@
       <x v="12"/>
     </i>
     <i>
-      <x v="13"/>
+      <x v="16"/>
     </i>
     <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
+      <x/>
     </i>
     <i t="grand">
       <x/>
@@ -12548,7 +13896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAA91FD-4B07-479C-BBF2-4CD552F4AB73}">
   <dimension ref="A1:AH160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A131" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -31732,7 +33080,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -31759,215 +33107,215 @@
       <c r="A3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="17">
         <v>15399</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="B4" s="17">
-        <v>641</v>
+        <v>111</v>
+      </c>
+      <c r="B4" s="18">
+        <v>10381</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="B5" s="17">
-        <v>1210</v>
+        <v>122</v>
+      </c>
+      <c r="B5" s="18">
+        <v>6150</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="B6" s="17">
-        <v>2232</v>
+        <v>170</v>
+      </c>
+      <c r="B6" s="18">
+        <v>4559</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="B7" s="17">
-        <v>277</v>
+        <v>201</v>
+      </c>
+      <c r="B7" s="18">
+        <v>4228</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="17">
-        <v>2948</v>
+        <v>155</v>
+      </c>
+      <c r="B8" s="18">
+        <v>3799</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="17">
-        <v>1248</v>
+        <v>191</v>
+      </c>
+      <c r="B9" s="18">
+        <v>3609</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="17">
-        <v>1101</v>
+        <v>142</v>
+      </c>
+      <c r="B10" s="18">
+        <v>3463</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="B11" s="17">
-        <v>3463</v>
+        <v>365</v>
+      </c>
+      <c r="B11" s="18">
+        <v>3308</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="B12" s="17">
-        <v>1389</v>
+        <v>69</v>
+      </c>
+      <c r="B12" s="18">
+        <v>2948</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="B13" s="17">
-        <v>1281</v>
+        <v>262</v>
+      </c>
+      <c r="B13" s="18">
+        <v>2878</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B14" s="17">
-        <v>4559</v>
+        <v>180</v>
+      </c>
+      <c r="B14" s="18">
+        <v>2444</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B15" s="17">
-        <v>6150</v>
+        <v>117</v>
+      </c>
+      <c r="B15" s="18">
+        <v>2350</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="B16" s="17">
-        <v>2044</v>
+        <v>317</v>
+      </c>
+      <c r="B16" s="18">
+        <v>2263</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="B17" s="17">
-        <v>3799</v>
+        <v>196</v>
+      </c>
+      <c r="B17" s="18">
+        <v>2232</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="B18" s="17">
-        <v>3308</v>
+        <v>322</v>
+      </c>
+      <c r="B18" s="18">
+        <v>2044</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" s="17">
-        <v>10381</v>
+        <v>257</v>
+      </c>
+      <c r="B19" s="18">
+        <v>1389</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="B20" s="17">
-        <v>1231</v>
+        <v>284</v>
+      </c>
+      <c r="B20" s="18">
+        <v>1281</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="B21" s="17">
-        <v>4228</v>
+        <v>79</v>
+      </c>
+      <c r="B21" s="18">
+        <v>1248</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="B22" s="17">
-        <v>2263</v>
+        <v>218</v>
+      </c>
+      <c r="B22" s="18">
+        <v>1231</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="B23" s="17">
-        <v>3609</v>
+        <v>270</v>
+      </c>
+      <c r="B23" s="18">
+        <v>1210</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="B24" s="17">
-        <v>2878</v>
+        <v>57</v>
+      </c>
+      <c r="B24" s="18">
+        <v>1101</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="18">
         <v>902</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="B26" s="17">
-        <v>2444</v>
+        <v>280</v>
+      </c>
+      <c r="B26" s="18">
+        <v>641</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B27" s="17">
-        <v>2350</v>
+        <v>516</v>
+      </c>
+      <c r="B27" s="18">
+        <v>411</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>516</v>
-      </c>
-      <c r="B28" s="17">
-        <v>411</v>
+        <v>361</v>
+      </c>
+      <c r="B28" s="18">
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>647</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="19">
         <v>81746</v>
       </c>
     </row>
@@ -31978,85 +33326,352 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EFD7070-6095-40AD-A1CE-F98A3940B84A}">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953EA057-9AE6-4B88-A9AB-F460E666FAB5}">
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>807</v>
+      </c>
+      <c r="B1" s="15"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="B3" s="17">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="B4" s="18">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="B5" s="18">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="18">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="18">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="B8" s="18">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B9" s="18">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="18">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="B11" s="18">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="B12" s="18">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="B13" s="18">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" s="18">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="B15" s="18">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="18">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" s="18">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="B18" s="18">
+        <v>2878</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="18">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="B20" s="18">
+        <v>3308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="18">
+        <v>3463</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B22" s="18">
+        <v>3609</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" s="18">
+        <v>3799</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B24" s="18">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" s="18">
+        <v>4559</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="18">
+        <v>6150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" s="18">
+        <v>10381</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="18">
+        <v>15399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>647</v>
+      </c>
+      <c r="B29" s="19">
+        <v>81746</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EFD7070-6095-40AD-A1CE-F98A3940B84A}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.109375" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" style="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="20">
         <f>AVERAGE('Grid Results'!G:G)</f>
         <v>514.12578616352198</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>641</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="20">
         <f>MEDIAN('Grid Results'!G:G)</f>
         <v>453</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="20">
         <f>MIN('Grid Results'!G:G)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>643</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="20">
         <f>MAX('Grid Results'!G:G)</f>
         <v>2188</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-    </row>
-    <row r="8" spans="1:2" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="B7" s="20" t="str">
+        <f>_xlfn.XLOOKUP(B4,'Grid Results'!G:G,'Grid Results'!D:D)</f>
+        <v>Antioch High School</v>
+      </c>
+      <c r="C7" s="20" t="str">
+        <f>_xlfn.XLOOKUP(B7,'Grid Results'!D:D,'Grid Results'!F:F)</f>
+        <v>37013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>644</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B8" s="20" t="str">
         <f>_xlfn.XLOOKUP(B3,'Grid Results'!G:G,'Grid Results'!D:D)</f>
         <v>The Academy at Opry Mills</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>646</v>
-      </c>
-      <c r="B9" t="str">
-        <f>_xlfn.XLOOKUP(B4,'Grid Results'!G:G,'Grid Results'!D:D)</f>
-        <v>Antioch High School</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-    </row>
+      <c r="C8" s="20" t="str">
+        <f>_xlfn.XLOOKUP(B8,'Grid Results'!D:D,'Grid Results'!F:F)</f>
+        <v>37214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+    </row>
+    <row r="10" spans="1:3" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
